--- a/AI/mapping.xlsx
+++ b/AI/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avina\OneDrive\Desktop\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4B47B0-2465-4632-9783-889547D62139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7136E095-1905-41BA-870A-D6001B440C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDDD37A9-B5BE-4B28-AF1E-E21EF761304F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Functionality</t>
   </si>
@@ -57,16 +57,34 @@
     <t>TC004</t>
   </si>
   <si>
-    <t>com.yourorg.tests.LoginTest</t>
-  </si>
-  <si>
-    <t>com.yourorg.tests.PaymentTest</t>
-  </si>
-  <si>
     <t>LoginTest</t>
   </si>
   <si>
     <t>PaymentTest</t>
+  </si>
+  <si>
+    <t>com.yourorg.LoginTest</t>
+  </si>
+  <si>
+    <t>com.yourorg.PaymentTest</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>com.yourorg.SignTest</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>com.yourorg.SignAndPaymentTest</t>
+  </si>
+  <si>
+    <t>SignIssueTest</t>
+  </si>
+  <si>
+    <t>SignAndPaymentTest</t>
   </si>
 </sst>
 </file>
@@ -418,13 +436,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D006AF-CA30-403F-9B1A-65767FA39271}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="54.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -439,46 +462,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
